--- a/origenes/test.xlsx
+++ b/origenes/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\MAPA_RELEASE\origenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D195A-799B-40F3-A1E7-02650E27491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCECD6BB-2DB6-482D-BDE1-AF5D60F4804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{235109B0-F166-4A15-AA6B-2FE3B1F3995A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{235109B0-F166-4A15-AA6B-2FE3B1F3995A}"/>
   </bookViews>
   <sheets>
     <sheet name="Capas" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -741,7 +741,47 @@
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -759,23 +799,42 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -825,280 +884,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1225,6 +1010,16 @@
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1399,6 +1194,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3444,7 +3249,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B551A705-4F60-452F-BD65-EB017D0FFC91}" name="TablaDinámica1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B551A705-4F60-452F-BD65-EB017D0FFC91}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4726,55 +4531,55 @@
     <i/>
   </colItems>
   <formats count="9">
-    <format dxfId="81">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="16">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="15">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
   </formats>
@@ -5023,12 +4828,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E3CB9C7B-30C6-4250-9C5D-467A4357B151}" name="Capas" displayName="Capas" ref="A1:E5" totalsRowShown="0">
   <autoFilter ref="A1:E5" xr:uid="{E3CB9C7B-30C6-4250-9C5D-467A4357B151}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3DCCD367-4176-4B1B-9DB1-7E15C5AB3C2E}" name="idcapa" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{84365576-6006-4249-8C10-3C939914AB46}" name="Capa" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{23CB737A-7056-44F6-A537-CEB5ED7BC8A4}" name="Tipo" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{3DCCD367-4176-4B1B-9DB1-7E15C5AB3C2E}" name="idcapa" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{84365576-6006-4249-8C10-3C939914AB46}" name="Capa" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{23CB737A-7056-44F6-A537-CEB5ED7BC8A4}" name="Tipo" dataDxfId="57"/>
     <tableColumn id="4" xr3:uid="{77A06ECF-D67C-454F-B0CE-327D202410E8}" name="url_ícono"/>
-    <tableColumn id="5" xr3:uid="{041AD1F6-23D8-4ACA-92DC-196A5ACE0392}" name="url" dataDxfId="72">
-      <calculatedColumnFormula>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json"</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{041AD1F6-23D8-4ACA-92DC-196A5ACE0392}" name="url" dataDxfId="0">
+      <calculatedColumnFormula>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json.json"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5036,51 +4841,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B860159C-4E5B-4F1C-AD34-ACA1A658D8AB}" name="BD_Capas" displayName="BD_Capas" ref="A9:J13" totalsRowShown="0" headerRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B860159C-4E5B-4F1C-AD34-ACA1A658D8AB}" name="BD_Capas" displayName="BD_Capas" ref="A9:J13" totalsRowShown="0" headerRowDxfId="55">
   <autoFilter ref="A9:J13" xr:uid="{B860159C-4E5B-4F1C-AD34-ACA1A658D8AB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{75A8A884-1D65-4E5E-B8C8-77E85AB66F2B}" name="idcapa" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{2A8A9E62-F4FC-4E3B-B1C9-6BF40AA34453}" name="Capa" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{75A8A884-1D65-4E5E-B8C8-77E85AB66F2B}" name="idcapa" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{2A8A9E62-F4FC-4E3B-B1C9-6BF40AA34453}" name="Capa" dataDxfId="53">
       <calculatedColumnFormula>+VLOOKUP(BD_Capas[[#This Row],[idcapa]],Capas[],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4562EDE5-8829-40E2-976E-2AE44EC10CA3}" name="idpropiedad"/>
-    <tableColumn id="4" xr3:uid="{32385EA8-BAB7-4928-A031-A960AD89E53A}" name="Propiedad" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{035EE145-9D77-4858-89B3-36E33AB1DD42}" name="popup_0_1" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{A9A0E11B-B8EA-4D4C-9546-EA4565E015BB}" name="descripcion_pop-up" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{5F6D8D2E-E38C-46CC-8F2C-5ED1D580678F}" name="posicion_popup" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{8B5DC378-B7F9-4E3D-AC39-A4AF81250C0B}" name="descripcion_capa" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{5C03E193-7980-49E1-894D-9DEECE0C9DBE}" name="clase" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{32385EA8-BAB7-4928-A031-A960AD89E53A}" name="Propiedad" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{035EE145-9D77-4858-89B3-36E33AB1DD42}" name="popup_0_1" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{A9A0E11B-B8EA-4D4C-9546-EA4565E015BB}" name="descripcion_pop-up" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{5F6D8D2E-E38C-46CC-8F2C-5ED1D580678F}" name="posicion_popup" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{8B5DC378-B7F9-4E3D-AC39-A4AF81250C0B}" name="descripcion_capa" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{5C03E193-7980-49E1-894D-9DEECE0C9DBE}" name="clase" dataDxfId="47">
       <calculatedColumnFormula>BD_Capas[[#This Row],[idcapa]]&amp;"-"&amp;BD_Capas[[#This Row],[posición_capa]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{92421CFC-4A75-4D76-9B47-B3E7C2151B6C}" name="posición_capa" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{92421CFC-4A75-4D76-9B47-B3E7C2151B6C}" name="posición_capa" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96BBB32F-0C5C-4CD7-BF04-9E1F2EB9C00E}" name="BD_Detalles" displayName="BD_Detalles" ref="A9:I13" totalsRowShown="0" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96BBB32F-0C5C-4CD7-BF04-9E1F2EB9C00E}" name="BD_Detalles" displayName="BD_Detalles" ref="A9:I13" totalsRowShown="0" dataDxfId="44">
   <autoFilter ref="A9:I13" xr:uid="{96BBB32F-0C5C-4CD7-BF04-9E1F2EB9C00E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9D7FBDA9-0788-4563-AA35-00082D95202E}" name="Clase" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{9D7FBDA9-0788-4563-AA35-00082D95202E}" name="Clase" dataDxfId="43">
       <calculatedColumnFormula>+A9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{83BA5E88-8850-4C0E-B07A-7893981D4057}" name="Descripción Capa" dataDxfId="89">
+    <tableColumn id="7" xr3:uid="{83BA5E88-8850-4C0E-B07A-7893981D4057}" name="Descripción Capa" dataDxfId="42">
       <calculatedColumnFormula>+IFERROR(VLOOKUP(BD_Detalles[[#This Row],[Clase]],'Resumen Capas'!$A$4:$C$1048576,2,0),"COMPLETAR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{487EB0A1-9443-44A7-BFE7-ACE9A32F49FF}" name="Propiedad" dataDxfId="88">
+    <tableColumn id="2" xr3:uid="{487EB0A1-9443-44A7-BFE7-ACE9A32F49FF}" name="Propiedad" dataDxfId="41">
       <calculatedColumnFormula>+IFERROR(IF(RIGHT(BD_Detalles[[#This Row],[Clase]],1)="0","",VLOOKUP(BD_Detalles[[#This Row],[Clase]],'Resumen Capas'!$A$4:$C$1048576,3,0)),"COMPLETAR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{98AF95EE-6F82-4642-89B4-4DB0AA49AEEB}" name="Variable" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{5414C827-224B-4470-A9E1-6A29EF6EA250}" name="Color" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{FA622BA5-65BA-42EE-91CA-9F9E3510C671}" name="titulo_leyenda" dataDxfId="85">
+    <tableColumn id="3" xr3:uid="{98AF95EE-6F82-4642-89B4-4DB0AA49AEEB}" name="Variable" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{5414C827-224B-4470-A9E1-6A29EF6EA250}" name="Color" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{FA622BA5-65BA-42EE-91CA-9F9E3510C671}" name="titulo_leyenda" dataDxfId="38">
       <calculatedColumnFormula>+IFERROR(VLOOKUP(BD_Detalles[[#This Row],[Clase]],'Resumen Capas'!$A$4:$C$1048576,2,0),"COMPLETAR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{32C0C72A-08F6-4017-AEC8-0A0B019C2C03}" name="url_icono" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{02FCDEF8-A182-4154-ACFD-C31BD15BAC9D}" name="idcapa" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{32C0C72A-08F6-4017-AEC8-0A0B019C2C03}" name="url_icono" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{02FCDEF8-A182-4154-ACFD-C31BD15BAC9D}" name="idcapa" dataDxfId="36">
       <calculatedColumnFormula>+LEFT(BD_Detalles[[#This Row],[Clase]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0DAE07AA-CA28-46ED-BED9-EDE4E800CFF8}" name="Tipo" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{0DAE07AA-CA28-46ED-BED9-EDE4E800CFF8}" name="Tipo" dataDxfId="35">
       <calculatedColumnFormula>+IFERROR(VLOOKUP(BD_Detalles[[#This Row],[idcapa]],Capas[[idcapa]:[Tipo]],3,0),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5095,23 +4900,23 @@
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{8DAF46F0-0587-4791-BD3B-29C4950AC864}" uniqueName="1" name="idcapa" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A5538333-8E57-48D9-8222-03DAA80989CB}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{8DAF46F0-0587-4791-BD3B-29C4950AC864}" uniqueName="1" name="idcapa" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{A5538333-8E57-48D9-8222-03DAA80989CB}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{42797560-E23E-4585-909F-D47B8BA464C8}" uniqueName="3" name="idpropiedad" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{39BB973A-AB48-4770-AA48-2EB263D61EC2}" uniqueName="4" name="Propiedad" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{39BB973A-AB48-4770-AA48-2EB263D61EC2}" uniqueName="4" name="Propiedad" queryTableFieldId="4" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{198F6B35-CBC8-430F-99DE-B71C75248DA3}" uniqueName="5" name="popup_0_1" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{C25F2E29-5148-4959-B8FE-CF7EE98E5DEB}" uniqueName="6" name="descripcion_pop-up" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{C25F2E29-5148-4959-B8FE-CF7EE98E5DEB}" uniqueName="6" name="descripcion_pop-up" queryTableFieldId="6" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{334857B2-053C-4714-8654-E075BF03F0A8}" uniqueName="7" name="posicion_popup" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{A9873B2C-1B46-4611-BD52-0A97C7D21EAF}" uniqueName="8" name="descripcion_capa" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{32B2ED96-0DD6-4ADE-87AF-B7ED7A0534FB}" uniqueName="9" name="clase" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{A9873B2C-1B46-4611-BD52-0A97C7D21EAF}" uniqueName="8" name="descripcion_capa" queryTableFieldId="8" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{32B2ED96-0DD6-4ADE-87AF-B7ED7A0534FB}" uniqueName="9" name="clase" queryTableFieldId="9" dataDxfId="29"/>
     <tableColumn id="10" xr3:uid="{B2FB5E95-FA88-487B-9206-B6E7F079B714}" uniqueName="10" name="posición_capa" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{FAC68029-648A-4EAF-8C51-25A7C5E3FE1B}" uniqueName="11" name="Tipo" queryTableFieldId="11" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{FAC68029-648A-4EAF-8C51-25A7C5E3FE1B}" uniqueName="11" name="Tipo" queryTableFieldId="11" dataDxfId="28"/>
     <tableColumn id="12" xr3:uid="{B8E893AA-11D2-44FF-AF68-A0D5684C28DD}" uniqueName="12" name="url_ícono" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{611A6746-F84D-452C-9BE0-C23E3A4E17F2}" uniqueName="13" name="Propiedad.1" queryTableFieldId="13" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{9A72167E-DB9E-46B1-86CA-052167332E56}" uniqueName="14" name="Variable" queryTableFieldId="14" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{13A7D352-24E4-4AFB-BF87-998BE16B0301}" uniqueName="15" name="Color" queryTableFieldId="15" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{6D4578CA-37C4-4E3D-943B-65A36077567C}" uniqueName="16" name="titulo_leyenda" queryTableFieldId="16" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{D5652FBA-BB6D-44CF-B852-53BA455D7DC1}" uniqueName="17" name="url_icono" queryTableFieldId="17" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{611A6746-F84D-452C-9BE0-C23E3A4E17F2}" uniqueName="13" name="Propiedad.1" queryTableFieldId="13" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{9A72167E-DB9E-46B1-86CA-052167332E56}" uniqueName="14" name="Variable" queryTableFieldId="14" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{13A7D352-24E4-4AFB-BF87-998BE16B0301}" uniqueName="15" name="Color" queryTableFieldId="15" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{6D4578CA-37C4-4E3D-943B-65A36077567C}" uniqueName="16" name="titulo_leyenda" queryTableFieldId="16" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{D5652FBA-BB6D-44CF-B852-53BA455D7DC1}" uniqueName="17" name="url_icono" queryTableFieldId="17" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5135,8 +4940,8 @@
   <autoFilter ref="A1:E5" xr:uid="{291D560E-9CA4-4BAC-995A-F0E03B82B6EA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1B08FD65-382E-435D-851C-83A7049E1E56}" uniqueName="1" name="idcapa" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BC737893-4EE0-435A-B6B2-871993B29D43}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4014DA1F-B84E-4528-B682-D095C29B7876}" uniqueName="3" name="Tipo" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{BC737893-4EE0-435A-B6B2-871993B29D43}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4014DA1F-B84E-4528-B682-D095C29B7876}" uniqueName="3" name="Tipo" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{27281E59-8A0B-448F-86F0-552D99C834C8}" uniqueName="4" name="url_ícono" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{A53714B3-3AD4-46C4-BF24-27D0226DF032}" uniqueName="5" name="url" queryTableFieldId="5"/>
   </tableColumns>
@@ -5148,15 +4953,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{99D7C979-6A29-45E0-B2F4-1A31B43B8910}" name="BD_Capas_2" displayName="BD_Capas_2" ref="A1:J5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{99D7C979-6A29-45E0-B2F4-1A31B43B8910}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1F37DEF1-03A3-4D04-9855-C67E8C6932F3}" uniqueName="1" name="idcapa" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2362DFA9-0E03-4A0F-8E81-717F71C9CD00}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{1F37DEF1-03A3-4D04-9855-C67E8C6932F3}" uniqueName="1" name="idcapa" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2362DFA9-0E03-4A0F-8E81-717F71C9CD00}" uniqueName="2" name="Capa" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{D62C477A-0E4D-4083-A695-7461E87D7261}" uniqueName="3" name="idpropiedad" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E99AA84F-1597-4CB3-8729-38D3FC0099BD}" uniqueName="4" name="Propiedad" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{E99AA84F-1597-4CB3-8729-38D3FC0099BD}" uniqueName="4" name="Propiedad" queryTableFieldId="4" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{6DAF260A-6EC5-40E6-A1BF-50FBA7B062DB}" uniqueName="5" name="popup_0_1" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{FA22DA01-3D61-4C22-8DD0-E2408BB734CC}" uniqueName="6" name="descripcion_pop-up" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{FA22DA01-3D61-4C22-8DD0-E2408BB734CC}" uniqueName="6" name="descripcion_pop-up" queryTableFieldId="6" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{BF6CD6F9-F568-4836-94A7-0D4A67A064A8}" uniqueName="7" name="posicion_popup" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{32BE8EB4-3CAA-4285-A024-B6D158401D4E}" uniqueName="8" name="descripcion_capa" queryTableFieldId="8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{BDD32029-B2DF-4385-96D0-BAA3350373FC}" uniqueName="9" name="clase" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{32BE8EB4-3CAA-4285-A024-B6D158401D4E}" uniqueName="8" name="descripcion_capa" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{BDD32029-B2DF-4385-96D0-BAA3350373FC}" uniqueName="9" name="clase" queryTableFieldId="9" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{8C58F67D-95E9-4856-A11D-348149AD6F79}" uniqueName="10" name="posición_capa" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5167,12 +4972,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86493A20-3CB7-4245-AC88-A38A8BE062D1}" name="BD_Detalles_2" displayName="BD_Detalles_2" ref="A1:I5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{86493A20-3CB7-4245-AC88-A38A8BE062D1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{48713DC3-192C-4883-810C-05F72AD98830}" uniqueName="1" name="Clase" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{48713DC3-192C-4883-810C-05F72AD98830}" uniqueName="1" name="Clase" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{63ED8DCC-2FE1-4BC4-9D52-09DAC1345894}" uniqueName="6" name="Descripción Capa" queryTableFieldId="6"/>
-    <tableColumn id="2" xr3:uid="{02AC7D7B-4DCC-486C-85A5-4138FB3C95BB}" uniqueName="2" name="Propiedad" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E68331ED-D6D2-4864-8879-A62B10583CDA}" uniqueName="3" name="Variable" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B418A81A-9C02-481F-9D4A-40DC6737F3BE}" uniqueName="4" name="Color" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{042A550C-2F82-4479-9F9F-25053CB84666}" uniqueName="5" name="titulo_leyenda" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{02AC7D7B-4DCC-486C-85A5-4138FB3C95BB}" uniqueName="2" name="Propiedad" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E68331ED-D6D2-4864-8879-A62B10583CDA}" uniqueName="3" name="Variable" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B418A81A-9C02-481F-9D4A-40DC6737F3BE}" uniqueName="4" name="Color" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{042A550C-2F82-4479-9F9F-25053CB84666}" uniqueName="5" name="titulo_leyenda" queryTableFieldId="5" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{C79F6488-7E33-4DFA-8854-F3CA2D7AE669}" uniqueName="7" name="url_icono" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{6AE148E5-68D2-48CA-BDE9-D4EEAF547F58}" uniqueName="8" name="idcapa" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{0B15936A-5646-4D5C-8EC6-C86FAE553E9D}" uniqueName="9" name="Tipo" queryTableFieldId="9"/>
@@ -5483,9 +5288,9 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5526,8 +5331,8 @@
         <v>99</v>
       </c>
       <c r="E2" s="29" t="str">
-        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json"</f>
-        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MAX/?Codcom=00000.json</v>
+        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json.json"</f>
+        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MAX/?Codcom=00000.json.json</v>
       </c>
       <c r="G2" t="str">
         <f>+A2</f>
@@ -5545,8 +5350,8 @@
         <v>99</v>
       </c>
       <c r="E3" s="29" t="str">
-        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json"</f>
-        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MEAN/?Codcom=00000.json</v>
+        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json.json"</f>
+        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MEAN/?Codcom=00000.json.json</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5560,8 +5365,8 @@
         <v>99</v>
       </c>
       <c r="E4" s="29" t="str">
-        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json"</f>
-        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MIN/?Codcom=00000.json</v>
+        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json.json"</f>
+        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_MIN/?Codcom=00000.json.json</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5575,8 +5380,8 @@
         <v>99</v>
       </c>
       <c r="E5" s="29" t="str">
-        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json"</f>
-        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_RANGE/?Codcom=00000.json</v>
+        <f>+"https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/"&amp;Capas[[#This Row],[Capa]]&amp;"/?Codcom=00000.json.json"</f>
+        <v>https://github.com/Sud-Austral/mapa_insumos/tree/main/euclidean/1_RANGE/?Codcom=00000.json.json</v>
       </c>
     </row>
   </sheetData>
@@ -5595,7 +5400,7 @@
   </sheetPr>
   <dimension ref="A9:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -5785,7 +5590,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E10:E13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5989,7 +5794,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B10:C13">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
       <formula>"COMPLETAR"</formula>
     </cfRule>
   </conditionalFormatting>
